--- a/private/INDIVIDUAL_LOCALIZATIONS_UI_5.xlsx
+++ b/private/INDIVIDUAL_LOCALIZATIONS_UI_5.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7726B7E-CECD-48D0-A474-C48C7E6BA32F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC68942-AE11-456F-ADF9-B918C3AA602C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26145" yWindow="1050" windowWidth="22155" windowHeight="19095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="315" windowWidth="30930" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$V$287</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INTL!$A$1:$V$306</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="2622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="2644">
   <si>
     <t>en_US</t>
   </si>
@@ -5644,9 +5645,6 @@
     <t>Avaria</t>
   </si>
   <si>
-    <t>Burr de vitória</t>
-  </si>
-  <si>
     <t>Contacte</t>
   </si>
   <si>
@@ -7060,9 +7058,6 @@
     <t>대전기록</t>
   </si>
   <si>
-    <t>{championName} {patch} Build</t>
-  </si>
-  <si>
     <t>{championName} Probuilds</t>
   </si>
   <si>
@@ -7084,18 +7079,12 @@
     <t>{championName} Probuild</t>
   </si>
   <si>
-    <t xml:space="preserve">{championName} {patch} Build </t>
-  </si>
-  <si>
     <t>{championName} Runy</t>
   </si>
   <si>
     <t>{championName} 룬</t>
   </si>
   <si>
-    <t>{championName} {patch} 빌드</t>
-  </si>
-  <si>
     <t>{championName} 통계</t>
   </si>
   <si>
@@ -7108,9 +7097,6 @@
     <t>{championName} Runen</t>
   </si>
   <si>
-    <t>Lên đồ {championName} {patch}</t>
-  </si>
-  <si>
     <t>Lên đồ {championName} {position}</t>
   </si>
   <si>
@@ -7147,9 +7133,6 @@
     <t>{championName} {position} Probuild cho Phiên bản {patch} từ game thủ Pro. {picks} hiện đang có thể Probuilds. {championName} {position} có tỉ lệ bị chọn {pickRate}% và tỉ lệ bị cấm {banRate}%.</t>
   </si>
   <si>
-    <t>{championName} гайд {patch}</t>
-  </si>
-  <si>
     <t>{championName} гайд для патч {patch} от профессиональных ЛоЛ игроков. {championName} чаще всего будет играться на позиции {positions}. Найди {championName} компонации которые приведут тебя к успеху</t>
   </si>
   <si>
@@ -7427,18 +7410,6 @@
   </si>
   <si>
     <t>Probuild {patch} | lolvvv</t>
-  </si>
-  <si>
-    <t>{championName} {patch} Build | lolvvv</t>
-  </si>
-  <si>
-    <t>{championName} {patch} 빌드 | lolvvv</t>
-  </si>
-  <si>
-    <t>{championName} Гайд {patch} | lolvvv</t>
-  </si>
-  <si>
-    <t>Lên đồ {championName} {patch} | lolvvv</t>
   </si>
   <si>
     <t>{championName} Probuilds {patch} | lolvvv</t>
@@ -7902,6 +7873,102 @@
   </si>
   <si>
     <t>Heftig</t>
+  </si>
+  <si>
+    <t>meta|head|title|clash</t>
+  </si>
+  <si>
+    <t>meta|head|description|clash</t>
+  </si>
+  <si>
+    <t>Insight into Clash | lolvvv</t>
+  </si>
+  <si>
+    <t>Get deep inside of your upcoming Clash opponents.</t>
+  </si>
+  <si>
+    <t>header|clash</t>
+  </si>
+  <si>
+    <t>Clash</t>
+  </si>
+  <si>
+    <t>{championName} 빌드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{championName} Build </t>
+  </si>
+  <si>
+    <t>{championName} гайд</t>
+  </si>
+  <si>
+    <t>Lên đồ {championName}</t>
+  </si>
+  <si>
+    <t>{championName} Build | lolvvv</t>
+  </si>
+  <si>
+    <t>{championName} 빌드 | lolvvv</t>
+  </si>
+  <si>
+    <t>{championName} Гайд | lolvvv</t>
+  </si>
+  <si>
+    <t>Lên đồ {championName} | lolvvv</t>
+  </si>
+  <si>
+    <t>label|tag</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Kürzel</t>
+  </si>
+  <si>
+    <t>noClashTeamFoundUrl</t>
+  </si>
+  <si>
+    <t>No Clash team found on the used URL!</t>
+  </si>
+  <si>
+    <t>Kein Clash Team unter der verwendeted URL gefunden!</t>
+  </si>
+  <si>
+    <t>meta|head|title|clashTeam|notFound</t>
+  </si>
+  <si>
+    <t>meta|head|title|clashTeam|summary</t>
+  </si>
+  <si>
+    <t>{teamName} Summary | lolvvv</t>
+  </si>
+  <si>
+    <t>meta|head|description|clashTeam|summary</t>
+  </si>
+  <si>
+    <t>{teamName} Clash team summary. Get deep insight! Check out the picks and bans of {teamName}, the latest matches and much more.</t>
+  </si>
+  <si>
+    <t>menu|secondary|summary</t>
+  </si>
+  <si>
+    <t>menu|secondary|champions</t>
+  </si>
+  <si>
+    <t>menu|secondary|roster</t>
+  </si>
+  <si>
+    <t>Roster</t>
+  </si>
+  <si>
+    <t>label|winRate|abbreviation</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>SR</t>
   </si>
 </sst>
 </file>
@@ -8091,9 +8158,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20 % - Akzent4" xfId="1" builtinId="42"/>
@@ -8409,14 +8474,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:V295"/>
+  <sheetPr codeName="Tabelle1" filterMode="1"/>
+  <dimension ref="A1:V307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D254" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A281" sqref="A281"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8511,7 +8576,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>584</v>
       </c>
@@ -8522,13 +8587,13 @@
         <v>588</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>1601</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>695</v>
@@ -8546,7 +8611,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>247</v>
       </c>
@@ -8557,13 +8622,13 @@
         <v>249</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>1600</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>725</v>
@@ -8581,12 +8646,12 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>677</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>678</v>
@@ -8595,7 +8660,7 @@
         <v>679</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>748</v>
@@ -8607,7 +8672,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>250</v>
       </c>
@@ -8618,13 +8683,13 @@
         <v>332</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>1464</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>726</v>
@@ -8642,7 +8707,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1094</v>
       </c>
@@ -8659,10 +8724,10 @@
         <v>817</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>1320</v>
@@ -8674,7 +8739,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1095</v>
       </c>
@@ -8688,7 +8753,7 @@
         <v>1000</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>1602</v>
@@ -8700,7 +8765,7 @@
         <v>981</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>1009</v>
@@ -8718,7 +8783,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1096</v>
       </c>
@@ -8738,7 +8803,7 @@
         <v>1044</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>1059</v>
@@ -8753,7 +8818,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1097</v>
       </c>
@@ -8767,7 +8832,7 @@
         <v>999</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="9" t="s">
@@ -8777,7 +8842,7 @@
         <v>974</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>1008</v>
@@ -8795,7 +8860,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1098</v>
       </c>
@@ -8844,16 +8909,25 @@
         <v>998</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>1467</v>
       </c>
+      <c r="L11" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>975</v>
+      </c>
       <c r="O11" s="20" t="s">
-        <v>2073</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>1869</v>
+        <v>2072</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>1034</v>
       </c>
       <c r="T11" s="20" t="s">
         <v>1459</v>
@@ -8861,8 +8935,11 @@
       <c r="U11" s="22" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V11" s="9" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>252</v>
       </c>
@@ -8876,13 +8953,13 @@
         <v>253</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>727</v>
@@ -8900,7 +8977,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>59</v>
       </c>
@@ -8958,7 +9035,7 @@
       </c>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>585</v>
       </c>
@@ -8969,19 +9046,19 @@
         <v>587</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>1469</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>587</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>1323</v>
@@ -8993,7 +9070,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>607</v>
       </c>
@@ -9004,19 +9081,19 @@
         <v>609</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>1470</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>759</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>1324</v>
@@ -9028,7 +9105,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>294</v>
       </c>
@@ -9039,19 +9116,19 @@
         <v>295</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>1471</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>712</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>1325</v>
@@ -9063,7 +9140,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1145</v>
       </c>
@@ -9074,31 +9151,31 @@
         <v>1147</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>1472</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>1326</v>
       </c>
       <c r="T17" s="20" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="U17" s="22" t="s">
         <v>1676</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>805</v>
       </c>
@@ -9109,19 +9186,19 @@
         <v>809</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>1473</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="O18" s="20" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>1327</v>
@@ -9133,7 +9210,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>806</v>
       </c>
@@ -9144,19 +9221,19 @@
         <v>810</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="K19" s="20" t="s">
         <v>1474</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>1328</v>
@@ -9168,7 +9245,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>814</v>
       </c>
@@ -9179,16 +9256,16 @@
         <v>816</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>1475</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>1329</v>
@@ -9200,7 +9277,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>62</v>
       </c>
@@ -9258,7 +9335,7 @@
       </c>
       <c r="V21" s="7"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>64</v>
       </c>
@@ -9316,7 +9393,7 @@
       </c>
       <c r="V22" s="7"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>617</v>
       </c>
@@ -9327,13 +9404,13 @@
         <v>629</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>629</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>628</v>
@@ -9351,12 +9428,12 @@
         <v>628</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>822</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>823</v>
@@ -9365,19 +9442,19 @@
         <v>824</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>1477</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="R24" s="4" t="s">
         <v>1332</v>
@@ -9389,7 +9466,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>827</v>
       </c>
@@ -9400,19 +9477,19 @@
         <v>828</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>1478</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>1333</v>
@@ -9424,7 +9501,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>1239</v>
       </c>
@@ -9435,19 +9512,19 @@
         <v>784</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>1479</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="R26" s="4" t="s">
         <v>1334</v>
@@ -9459,7 +9536,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>123</v>
       </c>
@@ -9500,7 +9577,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>769</v>
       </c>
@@ -9511,19 +9588,19 @@
         <v>772</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>1481</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="R28" s="4" t="s">
         <v>1336</v>
@@ -9535,7 +9612,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>692</v>
       </c>
@@ -9546,7 +9623,7 @@
         <v>694</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>1482</v>
@@ -9558,7 +9635,7 @@
         <v>758</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="R29" s="4" t="s">
         <v>1337</v>
@@ -9570,7 +9647,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>274</v>
       </c>
@@ -9581,7 +9658,7 @@
         <v>276</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>1483</v>
@@ -9590,13 +9667,13 @@
         <v>1078</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>1092</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="R30" s="4" t="s">
         <v>1338</v>
@@ -9608,7 +9685,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>689</v>
       </c>
@@ -9619,13 +9696,13 @@
         <v>691</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>1484</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>757</v>
@@ -9640,7 +9717,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -9698,7 +9775,7 @@
       </c>
       <c r="V32" s="7"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>780</v>
       </c>
@@ -9709,19 +9786,19 @@
         <v>782</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>1485</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="R33" s="4" t="s">
         <v>1340</v>
@@ -9733,7 +9810,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>765</v>
       </c>
@@ -9744,19 +9821,19 @@
         <v>773</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>1486</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="O34" s="20" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="R34" s="4" t="s">
         <v>1341</v>
@@ -9768,7 +9845,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>270</v>
       </c>
@@ -9779,19 +9856,19 @@
         <v>272</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>1487</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>762</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>1342</v>
@@ -9803,7 +9880,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>774</v>
       </c>
@@ -9814,19 +9891,19 @@
         <v>776</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>1488</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>1343</v>
@@ -9838,7 +9915,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>767</v>
       </c>
@@ -9849,19 +9926,19 @@
         <v>771</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>1489</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>1344</v>
@@ -9873,7 +9950,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>680</v>
       </c>
@@ -9887,7 +9964,7 @@
         <v>682</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>1490</v>
@@ -9917,7 +9994,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>26</v>
       </c>
@@ -9975,7 +10052,7 @@
       </c>
       <c r="V39" s="7"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>27</v>
       </c>
@@ -10033,7 +10110,7 @@
       </c>
       <c r="V40" s="7"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>796</v>
       </c>
@@ -10044,19 +10121,19 @@
         <v>798</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>1493</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="P41" s="20" t="s">
-        <v>2427</v>
+        <v>2421</v>
       </c>
       <c r="R41" s="4" t="s">
         <v>1346</v>
@@ -10068,69 +10145,69 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>1645</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>2341</v>
+        <v>2583</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>2341</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>2341</v>
-      </c>
-      <c r="K42" s="20" t="s">
-        <v>2341</v>
+        <v>2583</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>2583</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>2583</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>2352</v>
+        <v>2618</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>2349</v>
+        <v>2619</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>2370</v>
+        <v>2620</v>
       </c>
       <c r="T42" s="9" t="s">
-        <v>2341</v>
+        <v>2583</v>
       </c>
       <c r="U42" s="22" t="s">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>1823</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="M43" s="9"/>
       <c r="O43" s="9" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="U43" s="22" t="s">
-        <v>2348</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>1099</v>
       </c>
@@ -10159,48 +10236,48 @@
         <v>1253</v>
       </c>
       <c r="U44" s="22" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>1100</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="L45" s="9" t="s">
+        <v>2350</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>2348</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>2347</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>2351</v>
+      </c>
+      <c r="R45" s="9" t="s">
+        <v>2372</v>
+      </c>
+      <c r="T45" s="9" t="s">
+        <v>2345</v>
+      </c>
+      <c r="U45" s="22" t="s">
         <v>2354</v>
       </c>
-      <c r="M45" s="9" t="s">
-        <v>2351</v>
-      </c>
-      <c r="O45" s="9" t="s">
-        <v>2350</v>
-      </c>
-      <c r="P45" s="9" t="s">
-        <v>2355</v>
-      </c>
-      <c r="R45" s="9" t="s">
-        <v>2378</v>
-      </c>
-      <c r="T45" s="9" t="s">
-        <v>2347</v>
-      </c>
-      <c r="U45" s="22" t="s">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>1101</v>
       </c>
@@ -10211,13 +10288,13 @@
         <v>1072</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="K46" s="20" t="s">
         <v>1599</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="R46" s="4" t="s">
         <v>1348</v>
@@ -10229,12 +10306,12 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>1102</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>848</v>
@@ -10243,7 +10320,7 @@
         <v>1067</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>1063</v>
@@ -10258,7 +10335,7 @@
         <v>991</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="O47" s="9" t="s">
         <v>989</v>
@@ -10270,21 +10347,21 @@
         <v>1349</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="U47" s="22" t="s">
-        <v>2363</v>
+        <v>2358</v>
       </c>
       <c r="V47" s="9" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>1271</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>1273</v>
@@ -10301,17 +10378,17 @@
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="O48" s="9" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="P48" s="9"/>
       <c r="R48" s="9"/>
       <c r="T48" s="9"/>
       <c r="U48" s="22" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
       <c r="V48" s="9"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>1103</v>
       </c>
@@ -10337,16 +10414,16 @@
         <v>1206</v>
       </c>
       <c r="R49" s="9" t="s">
-        <v>2379</v>
+        <v>2373</v>
       </c>
       <c r="T49" s="9" t="s">
         <v>1207</v>
       </c>
       <c r="U49" s="22" t="s">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>1201</v>
       </c>
@@ -10357,7 +10434,7 @@
         <v>1203</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>1203</v>
@@ -10370,10 +10447,10 @@
       </c>
       <c r="T50" s="9"/>
       <c r="U50" s="22" t="s">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>66</v>
       </c>
@@ -10431,7 +10508,7 @@
       </c>
       <c r="V51" s="7"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>261</v>
       </c>
@@ -10442,7 +10519,7 @@
         <v>266</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>1496</v>
@@ -10451,7 +10528,7 @@
         <v>735</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="R52" s="4" t="s">
         <v>1351</v>
@@ -10463,7 +10540,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>7</v>
       </c>
@@ -10521,7 +10598,7 @@
       </c>
       <c r="V53" s="7"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>277</v>
       </c>
@@ -10532,7 +10609,7 @@
         <v>278</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>278</v>
@@ -10550,7 +10627,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>673</v>
       </c>
@@ -10561,7 +10638,7 @@
         <v>674</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>674</v>
@@ -10579,7 +10656,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>303</v>
       </c>
@@ -10590,7 +10667,7 @@
         <v>305</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>1497</v>
@@ -10599,13 +10676,13 @@
         <v>1048</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="O56" s="4" t="s">
         <v>741</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="R56" s="4" t="s">
         <v>1352</v>
@@ -10617,7 +10694,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>16</v>
       </c>
@@ -10675,7 +10752,7 @@
       </c>
       <c r="V57" s="7"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>4</v>
       </c>
@@ -10733,7 +10810,7 @@
       </c>
       <c r="V58" s="7"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>5</v>
       </c>
@@ -10791,7 +10868,7 @@
       </c>
       <c r="V59" s="7"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>590</v>
       </c>
@@ -10802,19 +10879,19 @@
         <v>594</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>1500</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="O60" s="4" t="s">
         <v>760</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="R60" s="4" t="s">
         <v>1353</v>
@@ -10826,7 +10903,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>325</v>
       </c>
@@ -10837,19 +10914,19 @@
         <v>324</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>1501</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="O61" s="4" t="s">
         <v>702</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="R61" s="4" t="s">
         <v>1354</v>
@@ -10861,7 +10938,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>20</v>
       </c>
@@ -10919,7 +10996,7 @@
       </c>
       <c r="V62" s="7"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>14</v>
       </c>
@@ -10977,7 +11054,7 @@
       </c>
       <c r="V63" s="7"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>10</v>
       </c>
@@ -11035,7 +11112,7 @@
       </c>
       <c r="V64" s="7"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>635</v>
       </c>
@@ -11046,7 +11123,7 @@
         <v>638</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>1502</v>
@@ -11055,7 +11132,7 @@
         <v>721</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="R65" s="4" t="s">
         <v>1355</v>
@@ -11067,7 +11144,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>633</v>
       </c>
@@ -11078,19 +11155,19 @@
         <v>637</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>1503</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="O66" s="4" t="s">
         <v>720</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="R66" s="4" t="s">
         <v>1356</v>
@@ -11102,7 +11179,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>613</v>
       </c>
@@ -11113,10 +11190,10 @@
         <v>615</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="O67" s="4" t="s">
         <v>714</v>
@@ -11131,7 +11208,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>612</v>
       </c>
@@ -11142,19 +11219,19 @@
         <v>611</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>1504</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="O68" s="4" t="s">
         <v>713</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="R68" s="4" t="s">
         <v>1358</v>
@@ -11166,7 +11243,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>82</v>
       </c>
@@ -11177,7 +11254,7 @@
         <v>84</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>1505</v>
@@ -11186,13 +11263,13 @@
         <v>1077</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="O69" s="4" t="s">
         <v>724</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="R69" s="4" t="s">
         <v>1359</v>
@@ -11204,7 +11281,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>78</v>
       </c>
@@ -11218,19 +11295,19 @@
         <v>81</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>79</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="O70" s="4" t="s">
         <v>723</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="R70" s="20" t="s">
         <v>1865</v>
@@ -11242,7 +11319,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>1104</v>
       </c>
@@ -11253,7 +11330,7 @@
         <v>284</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="K71" s="20" t="s">
         <v>1270</v>
@@ -11283,7 +11360,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>1649</v>
       </c>
@@ -11304,13 +11381,13 @@
       <c r="M72" s="9"/>
       <c r="O72" s="9"/>
       <c r="R72" s="9" t="s">
-        <v>2374</v>
+        <v>2368</v>
       </c>
       <c r="U72" s="22" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>1105</v>
       </c>
@@ -11343,7 +11420,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>1821</v>
       </c>
@@ -11366,7 +11443,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>1106</v>
       </c>
@@ -11378,19 +11455,19 @@
         <v>834</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="K75" s="4" t="s">
         <v>1507</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="O75" s="9" t="s">
         <v>1093</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="R75" s="4" t="s">
         <v>1360</v>
@@ -11402,7 +11479,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>1107</v>
       </c>
@@ -11438,10 +11515,10 @@
         <v>1144</v>
       </c>
       <c r="U76" s="22" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>1108</v>
       </c>
@@ -11456,7 +11533,7 @@
         <v>1066</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>1062</v>
@@ -11492,7 +11569,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>1200</v>
       </c>
@@ -11505,7 +11582,7 @@
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
@@ -11514,10 +11591,10 @@
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="9" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="P78" s="9"/>
       <c r="R78" s="9" t="s">
@@ -11528,7 +11605,7 @@
       </c>
       <c r="V78" s="9"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>1274</v>
       </c>
@@ -11554,7 +11631,7 @@
         <v>1276</v>
       </c>
       <c r="P79" s="9" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="R79" s="9"/>
       <c r="U79" s="22" t="s">
@@ -11562,12 +11639,12 @@
       </c>
       <c r="V79" s="9"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>620</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>625</v>
@@ -11576,19 +11653,19 @@
         <v>626</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>1510</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="O80" s="4" t="s">
         <v>717</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="R80" s="4" t="s">
         <v>1363</v>
@@ -11600,7 +11677,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>621</v>
       </c>
@@ -11611,19 +11688,19 @@
         <v>632</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>1511</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="O81" s="4" t="s">
         <v>718</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="R81" s="4" t="s">
         <v>1364</v>
@@ -11635,7 +11712,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>1838</v>
       </c>
@@ -11646,16 +11723,16 @@
         <v>1840</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="K82" s="20" t="s">
         <v>1841</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="R82" s="20" t="s">
-        <v>2375</v>
+        <v>2369</v>
       </c>
       <c r="T82" s="4" t="s">
         <v>959</v>
@@ -11664,7 +11741,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>1646</v>
       </c>
@@ -11675,20 +11752,20 @@
         <v>1834</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="K83" s="20" t="s">
         <v>1836</v>
       </c>
       <c r="R83" s="20" t="s">
-        <v>2371</v>
+        <v>2365</v>
       </c>
       <c r="T83" s="9"/>
       <c r="U83" s="22" t="s">
-        <v>2367</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>1825</v>
       </c>
@@ -11699,22 +11776,22 @@
         <v>1827</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="K84" s="20" t="s">
         <v>1835</v>
       </c>
       <c r="O84" s="20" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="R84" s="20" t="s">
-        <v>2371</v>
+        <v>2365</v>
       </c>
       <c r="U84" s="22" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>1828</v>
       </c>
@@ -11725,22 +11802,22 @@
         <v>1830</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="K85" s="20" t="s">
         <v>1831</v>
       </c>
       <c r="O85" s="20" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="R85" s="20" t="s">
-        <v>2372</v>
+        <v>2366</v>
       </c>
       <c r="U85" s="22" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>1109</v>
       </c>
@@ -11751,22 +11828,22 @@
         <v>1082</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="K86" s="20" t="s">
         <v>1633</v>
       </c>
       <c r="R86" s="20" t="s">
-        <v>2373</v>
+        <v>2367</v>
       </c>
       <c r="T86" s="9" t="s">
         <v>965</v>
       </c>
       <c r="U86" s="22" t="s">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>1110</v>
       </c>
@@ -11777,7 +11854,7 @@
         <v>1265</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="K87" s="20" t="s">
         <v>1634</v>
@@ -11792,10 +11869,10 @@
         <v>1143</v>
       </c>
       <c r="U87" s="22" t="s">
-        <v>2365</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>1111</v>
       </c>
@@ -11806,7 +11883,7 @@
         <v>1268</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>1512</v>
@@ -11818,7 +11895,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>1196</v>
       </c>
@@ -11829,13 +11906,13 @@
         <v>1267</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>1513</v>
       </c>
       <c r="O89" s="20" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="R89" s="4" t="s">
         <v>1367</v>
@@ -11844,7 +11921,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>1277</v>
       </c>
@@ -11855,19 +11932,19 @@
         <v>1279</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>1514</v>
       </c>
       <c r="O90" s="20" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="U90" s="22" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>1112</v>
       </c>
@@ -11878,13 +11955,13 @@
         <v>1087</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>1515</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="R91" s="4" t="s">
         <v>1368</v>
@@ -11896,24 +11973,24 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>1113</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>2590</v>
+        <v>2580</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>1085</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="K92" s="20" t="s">
         <v>1635</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="R92" s="4" t="s">
         <v>1369</v>
@@ -11925,7 +12002,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>1114</v>
       </c>
@@ -11936,7 +12013,7 @@
         <v>1084</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>1516</v>
@@ -11951,7 +12028,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>1115</v>
       </c>
@@ -11962,13 +12039,13 @@
         <v>1083</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="O94" s="20" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="R94" s="4" t="s">
         <v>1371</v>
@@ -11980,7 +12057,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>1116</v>
       </c>
@@ -11991,7 +12068,7 @@
         <v>1081</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>1518</v>
@@ -11999,7 +12076,7 @@
       <c r="L95" s="5"/>
       <c r="P95" s="5"/>
       <c r="R95" s="20" t="s">
-        <v>2376</v>
+        <v>2370</v>
       </c>
       <c r="T95" s="4" t="s">
         <v>960</v>
@@ -12008,7 +12085,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>1117</v>
       </c>
@@ -12019,14 +12096,14 @@
         <v>1088</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>1519</v>
       </c>
       <c r="L96" s="5"/>
       <c r="O96" s="4" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="P96" s="5"/>
       <c r="R96" s="4" t="s">
@@ -12039,117 +12116,117 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>1837</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>2461</v>
+        <v>2455</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>2461</v>
+        <v>2455</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>2461</v>
+        <v>2455</v>
       </c>
       <c r="K97" s="20" t="s">
-        <v>2461</v>
+        <v>2455</v>
       </c>
       <c r="L97" s="5"/>
       <c r="O97" s="20" t="s">
-        <v>2461</v>
+        <v>2455</v>
       </c>
       <c r="P97" s="5"/>
       <c r="R97" s="4" t="s">
-        <v>2462</v>
+        <v>2456</v>
       </c>
       <c r="T97" s="20" t="s">
-        <v>2461</v>
+        <v>2455</v>
       </c>
       <c r="U97" s="22" t="s">
-        <v>2463</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>1648</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>2464</v>
+        <v>2622</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>2464</v>
+        <v>2622</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>2464</v>
+        <v>2622</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>2464</v>
+        <v>2622</v>
       </c>
       <c r="L98" s="12"/>
       <c r="M98" s="9" t="s">
-        <v>2465</v>
+        <v>2623</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>2464</v>
+        <v>2622</v>
       </c>
       <c r="P98" s="5"/>
       <c r="R98" s="9" t="s">
-        <v>2466</v>
+        <v>2624</v>
       </c>
       <c r="T98" s="9"/>
       <c r="U98" s="22" t="s">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>2468</v>
+        <v>2458</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>2468</v>
+        <v>2458</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>2468</v>
+        <v>2458</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>2468</v>
+        <v>2458</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>2469</v>
+        <v>2459</v>
       </c>
       <c r="M99" s="9"/>
       <c r="O99" s="9" t="s">
-        <v>2468</v>
+        <v>2458</v>
       </c>
       <c r="P99" s="5"/>
       <c r="R99" s="9"/>
       <c r="T99" s="9"/>
       <c r="U99" s="22" t="s">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>1833</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>2471</v>
+        <v>2461</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>2472</v>
+        <v>2462</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>2471</v>
+        <v>2461</v>
       </c>
       <c r="K100" s="20" t="s">
-        <v>2472</v>
+        <v>2462</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>2473</v>
+        <v>2463</v>
       </c>
       <c r="M100" s="9"/>
       <c r="O100" s="9"/>
@@ -12157,393 +12234,393 @@
       <c r="R100" s="9"/>
       <c r="T100" s="9"/>
       <c r="U100" s="9" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>1118</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>2475</v>
+        <v>2465</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>2476</v>
+        <v>2466</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>2477</v>
+        <v>2467</v>
       </c>
       <c r="K101" s="20"/>
       <c r="L101" s="5"/>
       <c r="P101" s="5"/>
       <c r="R101" s="4" t="s">
-        <v>2478</v>
+        <v>2468</v>
       </c>
       <c r="T101" s="9" t="s">
-        <v>2479</v>
+        <v>2469</v>
       </c>
       <c r="U101" s="32" t="s">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>1119</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>2481</v>
+        <v>2471</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>2481</v>
+        <v>2471</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>2482</v>
+        <v>2472</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>2481</v>
+        <v>2471</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>2483</v>
+        <v>2473</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>2484</v>
+        <v>2474</v>
       </c>
       <c r="O102" s="9" t="s">
-        <v>2485</v>
+        <v>2475</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>2482</v>
+        <v>2472</v>
       </c>
       <c r="R102" s="9" t="s">
-        <v>2486</v>
+        <v>2476</v>
       </c>
       <c r="T102" s="9" t="s">
-        <v>2487</v>
+        <v>2477</v>
       </c>
       <c r="U102" s="22" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>1120</v>
       </c>
       <c r="C103" s="9" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>2480</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>2481</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>2482</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>2483</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>2484</v>
+      </c>
+      <c r="K103" s="9" t="s">
+        <v>2485</v>
+      </c>
+      <c r="L103" s="12" t="s">
+        <v>2486</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>2487</v>
+      </c>
+      <c r="O103" s="9" t="s">
+        <v>2488</v>
+      </c>
+      <c r="P103" s="12" t="s">
         <v>2489</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="R103" s="9" t="s">
         <v>2490</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="T103" s="9" t="s">
         <v>2491</v>
       </c>
-      <c r="G103" s="9" t="s">
+      <c r="U103" s="22" t="s">
         <v>2492</v>
       </c>
-      <c r="H103" s="9" t="s">
+      <c r="V103" s="9" t="s">
         <v>2493</v>
       </c>
-      <c r="I103" s="9" t="s">
-        <v>2494</v>
-      </c>
-      <c r="K103" s="9" t="s">
-        <v>2495</v>
-      </c>
-      <c r="L103" s="12" t="s">
-        <v>2496</v>
-      </c>
-      <c r="M103" s="9" t="s">
-        <v>2497</v>
-      </c>
-      <c r="O103" s="9" t="s">
-        <v>2498</v>
-      </c>
-      <c r="P103" s="12" t="s">
-        <v>2499</v>
-      </c>
-      <c r="R103" s="9" t="s">
-        <v>2500</v>
-      </c>
-      <c r="T103" s="9" t="s">
-        <v>2501</v>
-      </c>
-      <c r="U103" s="22" t="s">
-        <v>2502</v>
-      </c>
-      <c r="V103" s="9" t="s">
-        <v>2503</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>1198</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>2504</v>
+        <v>2494</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>2504</v>
+        <v>2494</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="9" t="s">
-        <v>2505</v>
+        <v>2495</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
       <c r="K104" s="9" t="s">
-        <v>2506</v>
+        <v>2496</v>
       </c>
       <c r="L104" s="12"/>
       <c r="M104" s="9" t="s">
-        <v>2507</v>
+        <v>2497</v>
       </c>
       <c r="O104" s="9" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="P104" s="12"/>
       <c r="R104" s="9" t="s">
-        <v>2508</v>
+        <v>2498</v>
       </c>
       <c r="T104" s="9"/>
       <c r="U104" s="22" t="s">
-        <v>2509</v>
+        <v>2499</v>
       </c>
       <c r="V104" s="9"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>1280</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>2510</v>
+        <v>2500</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>2511</v>
+        <v>2501</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="9" t="s">
-        <v>2510</v>
+        <v>2500</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
       <c r="K105" s="9" t="s">
-        <v>2512</v>
+        <v>2502</v>
       </c>
       <c r="L105" s="12"/>
       <c r="M105" s="9"/>
       <c r="O105" s="9" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="P105" s="12"/>
       <c r="R105" s="9"/>
       <c r="T105" s="9"/>
       <c r="U105" s="22" t="s">
-        <v>2513</v>
+        <v>2503</v>
       </c>
       <c r="V105" s="9"/>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>1121</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>2514</v>
+        <v>2504</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>2514</v>
+        <v>2504</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>2515</v>
+        <v>2505</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>2516</v>
+        <v>2506</v>
       </c>
       <c r="L106" s="5"/>
       <c r="M106" s="4" t="s">
-        <v>2517</v>
+        <v>2507</v>
       </c>
       <c r="O106" s="9" t="s">
-        <v>2518</v>
+        <v>2508</v>
       </c>
       <c r="P106" s="5"/>
       <c r="R106" s="4" t="s">
-        <v>2519</v>
+        <v>2509</v>
       </c>
       <c r="T106" s="4" t="s">
-        <v>2520</v>
+        <v>2510</v>
       </c>
       <c r="U106" s="22" t="s">
-        <v>2521</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>1122</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>2460</v>
+        <v>2454</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>2522</v>
+        <v>2512</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>2522</v>
+        <v>2512</v>
       </c>
       <c r="K107" s="4" t="s">
         <v>1520</v>
       </c>
       <c r="L107" s="5"/>
       <c r="O107" s="9" t="s">
-        <v>2522</v>
+        <v>2512</v>
       </c>
       <c r="P107" s="5"/>
       <c r="R107" s="4" t="s">
-        <v>2522</v>
+        <v>2512</v>
       </c>
       <c r="T107" s="4" t="s">
-        <v>2522</v>
+        <v>2512</v>
       </c>
       <c r="U107" s="22" t="s">
-        <v>2523</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>1123</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>2524</v>
+        <v>2514</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>2525</v>
+        <v>2515</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>2526</v>
+        <v>2516</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>2527</v>
+        <v>2517</v>
       </c>
       <c r="L108" s="5"/>
       <c r="O108" s="30" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="P108" s="5"/>
       <c r="R108" s="4" t="s">
-        <v>2528</v>
+        <v>2518</v>
       </c>
       <c r="T108" s="4" t="s">
-        <v>2529</v>
+        <v>2519</v>
       </c>
       <c r="U108" s="22" t="s">
-        <v>2530</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>1124</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>2531</v>
+        <v>2521</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>2532</v>
+        <v>2522</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>2533</v>
+        <v>2523</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>2534</v>
+        <v>2524</v>
       </c>
       <c r="L109" s="5"/>
       <c r="O109" s="20" t="s">
-        <v>2535</v>
+        <v>2525</v>
       </c>
       <c r="P109" s="5"/>
       <c r="R109" s="4" t="s">
-        <v>2536</v>
+        <v>2526</v>
       </c>
       <c r="T109" s="4" t="s">
-        <v>2537</v>
+        <v>2527</v>
       </c>
       <c r="U109" s="22" t="s">
-        <v>2538</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>1125</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>2539</v>
+        <v>2529</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>2539</v>
+        <v>2529</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>2539</v>
+        <v>2529</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>2539</v>
+        <v>2529</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>2540</v>
+        <v>2530</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="O110" s="9" t="s">
-        <v>2542</v>
+        <v>2532</v>
       </c>
       <c r="P110" s="5"/>
       <c r="R110" s="9" t="s">
-        <v>2543</v>
+        <v>2533</v>
       </c>
       <c r="T110" s="4" t="s">
-        <v>2544</v>
+        <v>2534</v>
       </c>
       <c r="U110" s="22" t="s">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>1126</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>2546</v>
+        <v>2536</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>2546</v>
+        <v>2536</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>2546</v>
+        <v>2536</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>2547</v>
+        <v>2537</v>
       </c>
       <c r="L111" s="12" t="s">
-        <v>2548</v>
+        <v>2538</v>
       </c>
       <c r="O111" s="9" t="s">
-        <v>2549</v>
+        <v>2539</v>
       </c>
       <c r="P111" s="12" t="s">
-        <v>2550</v>
+        <v>2540</v>
       </c>
       <c r="R111" s="9" t="s">
-        <v>2551</v>
+        <v>2541</v>
       </c>
       <c r="T111" s="4" t="s">
-        <v>2552</v>
+        <v>2542</v>
       </c>
       <c r="U111" s="22" t="s">
-        <v>2553</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>77</v>
       </c>
@@ -12557,14 +12634,14 @@
         <v>80</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>80</v>
       </c>
       <c r="L112" s="5"/>
       <c r="M112" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="O112" s="4" t="s">
         <v>75</v>
@@ -12582,7 +12659,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>74</v>
       </c>
@@ -12603,7 +12680,7 @@
       </c>
       <c r="L113" s="5"/>
       <c r="M113" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="O113" s="4" t="s">
         <v>75</v>
@@ -12619,7 +12696,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>639</v>
       </c>
@@ -12630,20 +12707,20 @@
         <v>641</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="K114" s="20" t="s">
         <v>1627</v>
       </c>
       <c r="L114" s="5"/>
       <c r="M114" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="O114" s="4" t="s">
         <v>734</v>
       </c>
       <c r="P114" s="5" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="R114" s="4" t="s">
         <v>1373</v>
@@ -12655,7 +12732,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>829</v>
       </c>
@@ -12666,23 +12743,23 @@
         <v>831</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="K115" s="4" t="s">
         <v>1521</v>
       </c>
       <c r="L115" s="5"/>
       <c r="M115" s="4" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="O115" s="9" t="s">
         <v>754</v>
       </c>
       <c r="P115" s="5" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="R115" s="20" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="T115" s="4" t="s">
         <v>940</v>
@@ -12691,7 +12768,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>686</v>
       </c>
@@ -12702,20 +12779,20 @@
         <v>688</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="K116" s="4" t="s">
         <v>1522</v>
       </c>
       <c r="L116" s="5"/>
       <c r="M116" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="O116" s="4" t="s">
         <v>755</v>
       </c>
       <c r="P116" s="5" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="R116" s="4" t="s">
         <v>1374</v>
@@ -12727,7 +12804,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>616</v>
       </c>
@@ -12738,7 +12815,7 @@
         <v>630</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>1016</v>
@@ -12765,7 +12842,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>29</v>
       </c>
@@ -12823,7 +12900,7 @@
       </c>
       <c r="V118" s="7"/>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>31</v>
       </c>
@@ -12881,7 +12958,7 @@
       </c>
       <c r="V119" s="7"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>30</v>
       </c>
@@ -12939,7 +13016,7 @@
       </c>
       <c r="V120" s="7"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>1243</v>
       </c>
@@ -12950,19 +13027,19 @@
         <v>764</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="K121" s="4" t="s">
         <v>1525</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O121" s="20" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="P121" s="5" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="R121" s="4" t="s">
         <v>1376</v>
@@ -12974,7 +13051,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="122" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>289</v>
       </c>
@@ -12988,7 +13065,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
@@ -12998,14 +13075,14 @@
       </c>
       <c r="L122" s="4"/>
       <c r="M122" s="4" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="N122" s="4"/>
       <c r="O122" s="4" t="s">
         <v>709</v>
       </c>
       <c r="P122" s="4" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Q122" s="4"/>
       <c r="R122" s="4" t="s">
@@ -13020,7 +13097,7 @@
       </c>
       <c r="V122" s="4"/>
     </row>
-    <row r="123" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>115</v>
       </c>
@@ -13034,7 +13111,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
@@ -13049,7 +13126,7 @@
         <v>707</v>
       </c>
       <c r="P123" s="4" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="Q123" s="4"/>
       <c r="R123" s="4" t="s">
@@ -13064,7 +13141,7 @@
       </c>
       <c r="V123" s="4"/>
     </row>
-    <row r="124" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>799</v>
       </c>
@@ -13078,7 +13155,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
@@ -13093,7 +13170,7 @@
         <v>706</v>
       </c>
       <c r="P124" s="4" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="Q124" s="4"/>
       <c r="R124" s="4" t="s">
@@ -13108,7 +13185,7 @@
       </c>
       <c r="V124" s="4"/>
     </row>
-    <row r="125" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>73</v>
       </c>
@@ -13122,7 +13199,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
@@ -13137,7 +13214,7 @@
         <v>706</v>
       </c>
       <c r="P125" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Q125" s="4"/>
       <c r="R125" s="4" t="s">
@@ -13152,7 +13229,7 @@
       </c>
       <c r="V125" s="4"/>
     </row>
-    <row r="126" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>1227</v>
       </c>
@@ -13166,7 +13243,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
@@ -13194,7 +13271,7 @@
       </c>
       <c r="V126" s="4"/>
     </row>
-    <row r="127" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>316</v>
       </c>
@@ -13208,7 +13285,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
@@ -13218,14 +13295,14 @@
       </c>
       <c r="L127" s="4"/>
       <c r="M127" s="4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="N127" s="4"/>
       <c r="O127" s="4" t="s">
         <v>711</v>
       </c>
       <c r="P127" s="4" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="Q127" s="4"/>
       <c r="R127" s="4" t="s">
@@ -13240,7 +13317,7 @@
       </c>
       <c r="V127" s="4"/>
     </row>
-    <row r="128" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>290</v>
       </c>
@@ -13254,7 +13331,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
@@ -13269,7 +13346,7 @@
         <v>710</v>
       </c>
       <c r="P128" s="4" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="Q128" s="4"/>
       <c r="R128" s="4" t="s">
@@ -13284,7 +13361,7 @@
       </c>
       <c r="V128" s="4"/>
     </row>
-    <row r="129" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>116</v>
       </c>
@@ -13298,7 +13375,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
@@ -13313,7 +13390,7 @@
         <v>708</v>
       </c>
       <c r="P129" s="4" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="Q129" s="4"/>
       <c r="R129" s="4" t="s">
@@ -13328,7 +13405,7 @@
       </c>
       <c r="V129" s="4"/>
     </row>
-    <row r="130" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>849</v>
       </c>
@@ -13342,7 +13419,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
@@ -13357,7 +13434,7 @@
         <v>1089</v>
       </c>
       <c r="P130" s="4" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="Q130" s="4"/>
       <c r="R130" s="4" t="s">
@@ -13372,7 +13449,7 @@
       </c>
       <c r="V130" s="4"/>
     </row>
-    <row r="131" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>255</v>
       </c>
@@ -13386,7 +13463,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
@@ -13396,14 +13473,14 @@
       </c>
       <c r="L131" s="4"/>
       <c r="M131" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="N131" s="4"/>
       <c r="O131" s="4" t="s">
         <v>729</v>
       </c>
       <c r="P131" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="Q131" s="4"/>
       <c r="R131" s="4" t="s">
@@ -13418,7 +13495,7 @@
       </c>
       <c r="V131" s="4"/>
     </row>
-    <row r="132" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>598</v>
       </c>
@@ -13466,7 +13543,7 @@
       </c>
       <c r="V132" s="4"/>
     </row>
-    <row r="133" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>596</v>
       </c>
@@ -13483,7 +13560,7 @@
         <v>#NAME?</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
@@ -13511,7 +13588,7 @@
       </c>
       <c r="V133" s="4"/>
     </row>
-    <row r="134" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>597</v>
       </c>
@@ -13559,7 +13636,7 @@
       </c>
       <c r="V134" s="4"/>
     </row>
-    <row r="135" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>306</v>
       </c>
@@ -13573,7 +13650,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
@@ -13583,14 +13660,14 @@
       </c>
       <c r="L135" s="4"/>
       <c r="M135" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="N135" s="4"/>
       <c r="O135" s="4" t="s">
         <v>731</v>
       </c>
       <c r="P135" s="4" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="Q135" s="4"/>
       <c r="R135" s="4" t="s">
@@ -13605,7 +13682,7 @@
       </c>
       <c r="V135" s="4"/>
     </row>
-    <row r="136" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>1127</v>
       </c>
@@ -13619,7 +13696,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
@@ -13643,7 +13720,7 @@
       </c>
       <c r="V136" s="4"/>
     </row>
-    <row r="137" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>1128</v>
       </c>
@@ -13657,7 +13734,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
@@ -13670,7 +13747,7 @@
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
       <c r="P137" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="Q137" s="4"/>
       <c r="R137" s="4" t="s">
@@ -13683,7 +13760,7 @@
       </c>
       <c r="V137" s="4"/>
     </row>
-    <row r="138" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>1129</v>
       </c>
@@ -13697,7 +13774,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
@@ -13710,7 +13787,7 @@
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
       <c r="P138" s="4" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="Q138" s="4"/>
       <c r="R138" s="4" t="s">
@@ -13723,7 +13800,7 @@
       </c>
       <c r="V138" s="4"/>
     </row>
-    <row r="139" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>307</v>
       </c>
@@ -13737,7 +13814,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
@@ -13747,14 +13824,14 @@
       </c>
       <c r="L139" s="4"/>
       <c r="M139" s="4" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="N139" s="4"/>
       <c r="O139" s="4" t="s">
         <v>732</v>
       </c>
       <c r="P139" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="Q139" s="4"/>
       <c r="R139" s="4" t="s">
@@ -13769,7 +13846,7 @@
       </c>
       <c r="V139" s="4"/>
     </row>
-    <row r="140" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>298</v>
       </c>
@@ -13783,7 +13860,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="9" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
@@ -13819,7 +13896,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="141" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>300</v>
       </c>
@@ -13833,7 +13910,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
@@ -13843,14 +13920,14 @@
       </c>
       <c r="L141" s="4"/>
       <c r="M141" s="4" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="N141" s="4"/>
       <c r="O141" s="4" t="s">
         <v>740</v>
       </c>
       <c r="P141" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="Q141" s="4"/>
       <c r="R141" s="4" t="s">
@@ -13865,7 +13942,7 @@
       </c>
       <c r="V141" s="4"/>
     </row>
-    <row r="142" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>13</v>
       </c>
@@ -13920,7 +13997,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="143" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>9</v>
       </c>
@@ -13975,7 +14052,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="144" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>19</v>
       </c>
@@ -14030,7 +14107,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="145" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>256</v>
       </c>
@@ -14044,7 +14121,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
@@ -14059,7 +14136,7 @@
         <v>730</v>
       </c>
       <c r="P145" s="4" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="Q145" s="4"/>
       <c r="R145" s="4" t="s">
@@ -14074,7 +14151,7 @@
       </c>
       <c r="V145" s="4"/>
     </row>
-    <row r="146" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>790</v>
       </c>
@@ -14088,7 +14165,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
@@ -14103,7 +14180,7 @@
         <v>1090</v>
       </c>
       <c r="P146" s="4" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="Q146" s="4"/>
       <c r="R146" s="4" t="s">
@@ -14118,7 +14195,7 @@
       </c>
       <c r="V146" s="4"/>
     </row>
-    <row r="147" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>602</v>
       </c>
@@ -14132,7 +14209,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
@@ -14160,7 +14237,7 @@
       </c>
       <c r="V147" s="4"/>
     </row>
-    <row r="148" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>279</v>
       </c>
@@ -14174,7 +14251,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
@@ -14184,7 +14261,7 @@
       </c>
       <c r="L148" s="4"/>
       <c r="M148" s="4" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="N148" s="4"/>
       <c r="O148" s="4" t="s">
@@ -14204,13 +14281,13 @@
       </c>
       <c r="V148" s="4"/>
     </row>
-    <row r="149" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>2437</v>
+        <v>2431</v>
       </c>
       <c r="B149" s="25"/>
       <c r="C149" s="9" t="s">
-        <v>2446</v>
+        <v>2440</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -14235,7 +14312,7 @@
       <c r="R149" s="4"/>
       <c r="S149" s="4"/>
       <c r="T149" s="20" t="s">
-        <v>2446</v>
+        <v>2440</v>
       </c>
       <c r="U149" s="22" t="s">
         <v>1753</v>
@@ -14244,9 +14321,9 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="150" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>2436</v>
+        <v>2430</v>
       </c>
       <c r="B150" s="25"/>
       <c r="C150" s="4" t="s">
@@ -14286,13 +14363,13 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="151" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
       <c r="B151" s="25"/>
       <c r="C151" s="20" t="s">
-        <v>2447</v>
+        <v>2441</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -14319,7 +14396,7 @@
       <c r="R151" s="9"/>
       <c r="S151" s="4"/>
       <c r="T151" s="20" t="s">
-        <v>2447</v>
+        <v>2441</v>
       </c>
       <c r="U151" s="22" t="s">
         <v>1755</v>
@@ -14328,13 +14405,13 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="152" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>2434</v>
+        <v>2428</v>
       </c>
       <c r="B152" s="25"/>
       <c r="C152" s="20" t="s">
-        <v>2448</v>
+        <v>2442</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -14361,7 +14438,7 @@
       <c r="R152" s="9"/>
       <c r="S152" s="4"/>
       <c r="T152" s="20" t="s">
-        <v>2448</v>
+        <v>2442</v>
       </c>
       <c r="U152" s="22" t="s">
         <v>1756</v>
@@ -14370,9 +14447,9 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="153" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>2433</v>
+        <v>2427</v>
       </c>
       <c r="B153" s="25"/>
       <c r="C153" s="4" t="s">
@@ -14412,7 +14489,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="154" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>591</v>
       </c>
@@ -14426,7 +14503,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
@@ -14456,7 +14533,7 @@
       </c>
       <c r="V154" s="4"/>
     </row>
-    <row r="155" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:22" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>1234</v>
       </c>
@@ -14502,7 +14579,7 @@
       </c>
       <c r="V155" s="4"/>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>326</v>
       </c>
@@ -14513,19 +14590,19 @@
         <v>328</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K156" s="4" t="s">
         <v>1547</v>
       </c>
       <c r="M156" s="4" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="O156" s="4" t="s">
         <v>747</v>
       </c>
       <c r="P156" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="R156" s="4" t="s">
         <v>1400</v>
@@ -14537,7 +14614,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>2</v>
       </c>
@@ -14548,19 +14625,19 @@
         <v>87</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="K157" s="4" t="s">
         <v>1548</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="O157" s="20" t="s">
         <v>696</v>
       </c>
       <c r="P157" s="4" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="R157" s="20" t="s">
         <v>1401</v>
@@ -14572,7 +14649,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>120</v>
       </c>
@@ -14583,19 +14660,19 @@
         <v>122</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="K158" s="4" t="s">
         <v>1549</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="O158" s="4" t="s">
         <v>697</v>
       </c>
       <c r="P158" s="4" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="R158" s="4" t="s">
         <v>1402</v>
@@ -14607,7 +14684,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>1240</v>
       </c>
@@ -14618,19 +14695,19 @@
         <v>789</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K159" s="4" t="s">
         <v>1550</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="O159" s="20" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="P159" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="R159" s="4" t="s">
         <v>1403</v>
@@ -14642,7 +14719,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>1241</v>
       </c>
@@ -14659,13 +14736,13 @@
         <v>1551</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="O160" s="20" t="s">
         <v>787</v>
       </c>
       <c r="P160" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="R160" s="4" t="s">
         <v>1404</v>
@@ -14677,7 +14754,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>1242</v>
       </c>
@@ -14688,19 +14765,19 @@
         <v>786</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="K161" s="4" t="s">
         <v>1552</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="O161" s="20" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="P161" s="4" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="R161" s="4" t="s">
         <v>1405</v>
@@ -14712,33 +14789,33 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>825</v>
       </c>
       <c r="B162" s="25" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D162" s="9" t="s">
         <v>2316</v>
       </c>
-      <c r="C162" s="9" t="s">
-        <v>2315</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>2317</v>
-      </c>
       <c r="G162" s="4" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="K162" s="4" t="s">
         <v>1553</v>
       </c>
       <c r="M162" s="4" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="O162" s="20" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="P162" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="R162" s="4" t="s">
         <v>1406</v>
@@ -14750,7 +14827,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>254</v>
       </c>
@@ -14761,19 +14838,19 @@
         <v>315</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="K163" s="4" t="s">
         <v>1554</v>
       </c>
       <c r="M163" s="4" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="O163" s="4" t="s">
         <v>728</v>
       </c>
       <c r="P163" s="4" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="R163" s="4" t="s">
         <v>1407</v>
@@ -14785,7 +14862,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>286</v>
       </c>
@@ -14796,7 +14873,7 @@
         <v>288</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="K164" s="20" t="s">
         <v>1628</v>
@@ -14805,7 +14882,7 @@
         <v>704</v>
       </c>
       <c r="P164" s="4" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="R164" s="4" t="s">
         <v>1408</v>
@@ -14817,7 +14894,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>104</v>
       </c>
@@ -14829,7 +14906,7 @@
         <v>107</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="K165" s="20" t="s">
         <v>1629</v>
@@ -14838,13 +14915,13 @@
         <v>1079</v>
       </c>
       <c r="M165" s="16" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="O165" s="16" t="s">
         <v>703</v>
       </c>
       <c r="P165" s="4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="R165" s="16" t="s">
         <v>1409</v>
@@ -14856,7 +14933,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>108</v>
       </c>
@@ -14867,7 +14944,7 @@
         <v>112</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="K166" s="20" t="s">
         <v>1630</v>
@@ -14897,7 +14974,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
         <v>110</v>
       </c>
@@ -14909,7 +14986,7 @@
         <v>113</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="K167" s="20" t="s">
         <v>1631</v>
@@ -14918,7 +14995,7 @@
         <v>705</v>
       </c>
       <c r="P167" s="4" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="R167" s="4" t="s">
         <v>1410</v>
@@ -14930,7 +15007,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
         <v>105</v>
       </c>
@@ -14942,19 +15019,19 @@
         <v>69</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="K168" s="20" t="s">
         <v>1632</v>
       </c>
       <c r="M168" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="O168" s="4" t="s">
         <v>701</v>
       </c>
       <c r="P168" s="4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="R168" s="4" t="s">
         <v>1411</v>
@@ -14966,7 +15043,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
         <v>24</v>
       </c>
@@ -15024,7 +15101,7 @@
       </c>
       <c r="V169" s="7"/>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>811</v>
       </c>
@@ -15036,7 +15113,7 @@
         <v>813</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="K170" s="4" t="s">
         <v>1555</v>
@@ -15066,7 +15143,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
         <v>281</v>
       </c>
@@ -15078,7 +15155,7 @@
         <v>283</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="K171" s="4" t="s">
         <v>1556</v>
@@ -15099,7 +15176,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
         <v>683</v>
       </c>
@@ -15111,7 +15188,7 @@
         <v>685</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K172" s="4" t="s">
         <v>1557</v>
@@ -15123,7 +15200,7 @@
         <v>756</v>
       </c>
       <c r="P172" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="R172" s="4" t="s">
         <v>1414</v>
@@ -15135,7 +15212,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>793</v>
       </c>
@@ -15146,13 +15223,13 @@
         <v>795</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="K173" s="4" t="s">
         <v>1558</v>
       </c>
       <c r="O173" s="20" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="T173" s="4" t="s">
         <v>946</v>
@@ -15161,12 +15238,12 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>820</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>852</v>
@@ -15175,19 +15252,19 @@
         <v>821</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="K174" s="4" t="s">
         <v>1559</v>
       </c>
       <c r="M174" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="O174" s="20" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="P174" s="4" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="R174" s="4" t="s">
         <v>1415</v>
@@ -15199,7 +15276,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>308</v>
       </c>
@@ -15213,7 +15290,7 @@
         <v>1066</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="H175" s="9" t="s">
         <v>1062</v>
@@ -15249,7 +15326,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>818</v>
       </c>
@@ -15260,16 +15337,16 @@
         <v>819</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="K176" s="4" t="s">
         <v>819</v>
       </c>
       <c r="M176" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="O176" s="20" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="R176" s="4" t="s">
         <v>1416</v>
@@ -15281,7 +15358,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>619</v>
       </c>
@@ -15292,19 +15369,19 @@
         <v>627</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="K177" s="4" t="s">
         <v>1560</v>
       </c>
       <c r="M177" s="4" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="O177" s="4" t="s">
         <v>716</v>
       </c>
       <c r="P177" s="4" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="R177" s="4" t="s">
         <v>1417</v>
@@ -15316,7 +15393,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>622</v>
       </c>
@@ -15327,19 +15404,19 @@
         <v>624</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="K178" s="4" t="s">
         <v>1561</v>
       </c>
       <c r="M178" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="O178" s="4" t="s">
         <v>719</v>
       </c>
       <c r="P178" s="4" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="R178" s="4" t="s">
         <v>1418</v>
@@ -15351,7 +15428,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>263</v>
       </c>
@@ -15362,19 +15439,19 @@
         <v>265</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="K179" s="4" t="s">
         <v>1562</v>
       </c>
       <c r="M179" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="O179" s="4" t="s">
         <v>731</v>
       </c>
       <c r="P179" s="4" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="R179" s="4" t="s">
         <v>1419</v>
@@ -15386,7 +15463,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>1130</v>
       </c>
@@ -15400,7 +15477,7 @@
         <v>1000</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="K180" s="20" t="s">
         <v>1602</v>
@@ -15412,7 +15489,7 @@
         <v>981</v>
       </c>
       <c r="O180" s="20" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="P180" s="9" t="s">
         <v>1009</v>
@@ -15430,7 +15507,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>1131</v>
       </c>
@@ -15447,7 +15524,7 @@
         <v>1476</v>
       </c>
       <c r="P181" s="4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="R181" s="4" t="s">
         <v>1420</v>
@@ -15459,7 +15536,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>1132</v>
       </c>
@@ -15476,7 +15553,7 @@
         <v>1563</v>
       </c>
       <c r="P182" s="4" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="R182" s="4" t="s">
         <v>1421</v>
@@ -15485,7 +15562,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>1133</v>
       </c>
@@ -15502,7 +15579,7 @@
         <v>1491</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="P183" s="4" t="s">
         <v>546</v>
@@ -15517,7 +15594,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>1134</v>
       </c>
@@ -15546,7 +15623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>1135</v>
       </c>
@@ -15557,7 +15634,7 @@
         <v>84</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="K185" s="4" t="s">
         <v>1505</v>
@@ -15566,13 +15643,13 @@
         <v>1077</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="O185" s="20" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P185" s="4" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="R185" s="4" t="s">
         <v>1424</v>
@@ -15584,7 +15661,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>1136</v>
       </c>
@@ -15601,10 +15678,10 @@
         <v>1564</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="P186" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="R186" s="4" t="s">
         <v>1425</v>
@@ -15613,7 +15690,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>1137</v>
       </c>
@@ -15624,7 +15701,7 @@
         <v>1086</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="K187" s="4" t="s">
         <v>1270</v>
@@ -15651,7 +15728,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>1138</v>
       </c>
@@ -15665,7 +15742,7 @@
         <v>999</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="L188" s="9" t="s">
         <v>1001</v>
@@ -15674,7 +15751,7 @@
         <v>974</v>
       </c>
       <c r="O188" s="20" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="P188" s="9" t="s">
         <v>1008</v>
@@ -15692,7 +15769,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>1139</v>
       </c>
@@ -15703,19 +15780,19 @@
         <v>280</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K189" s="4" t="s">
         <v>1565</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="O189" s="4" t="s">
         <v>739</v>
       </c>
       <c r="P189" s="4" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="R189" s="4" t="s">
         <v>1397</v>
@@ -15727,7 +15804,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>1140</v>
       </c>
@@ -15738,19 +15815,19 @@
         <v>1257</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="K190" s="4" t="s">
         <v>1566</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="O190" s="20" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="P190" s="4" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="R190" s="4" t="s">
         <v>1427</v>
@@ -15773,7 +15850,7 @@
         <v>998</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="K191" s="4" t="s">
         <v>1467</v>
@@ -15785,7 +15862,7 @@
         <v>975</v>
       </c>
       <c r="O191" s="20" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="P191" s="9" t="s">
         <v>1007</v>
@@ -15803,7 +15880,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>802</v>
       </c>
@@ -15814,16 +15891,16 @@
         <v>804</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="K192" s="4" t="s">
         <v>1567</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="P192" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="R192" s="4" t="s">
         <v>1428</v>
@@ -15835,7 +15912,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>777</v>
       </c>
@@ -15846,16 +15923,16 @@
         <v>779</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="K193" s="4" t="s">
         <v>1568</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="P193" s="4" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="R193" s="4" t="s">
         <v>1429</v>
@@ -15867,7 +15944,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>12</v>
       </c>
@@ -15925,7 +16002,7 @@
       </c>
       <c r="V194" s="7"/>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>8</v>
       </c>
@@ -15983,7 +16060,7 @@
       </c>
       <c r="V195" s="7"/>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>18</v>
       </c>
@@ -16041,7 +16118,7 @@
       </c>
       <c r="V196" s="7"/>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>17</v>
       </c>
@@ -16099,7 +16176,7 @@
       </c>
       <c r="V197" s="7"/>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>28</v>
       </c>
@@ -16157,7 +16234,7 @@
       </c>
       <c r="V198" s="7"/>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>15</v>
       </c>
@@ -16215,7 +16292,7 @@
       </c>
       <c r="V199" s="7"/>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>11</v>
       </c>
@@ -16273,7 +16350,7 @@
       </c>
       <c r="V200" s="7"/>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>21</v>
       </c>
@@ -16331,7 +16408,7 @@
       </c>
       <c r="V201" s="7"/>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>72</v>
       </c>
@@ -16342,7 +16419,7 @@
         <v>86</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="K202" s="4" t="s">
         <v>1569</v>
@@ -16351,7 +16428,7 @@
         <v>722</v>
       </c>
       <c r="P202" s="4" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="R202" s="4" t="s">
         <v>1430</v>
@@ -16363,7 +16440,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>25</v>
       </c>
@@ -16421,7 +16498,7 @@
       </c>
       <c r="V203" s="7"/>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>65</v>
       </c>
@@ -16479,7 +16556,7 @@
       </c>
       <c r="V204" s="7"/>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>23</v>
       </c>
@@ -16537,7 +16614,7 @@
       </c>
       <c r="V205" s="7"/>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>22</v>
       </c>
@@ -16595,7 +16672,7 @@
       </c>
       <c r="V206" s="7"/>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>329</v>
       </c>
@@ -16606,13 +16683,13 @@
         <v>331</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="K207" s="4" t="s">
         <v>1570</v>
       </c>
       <c r="M207" s="4" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="O207" s="4" t="s">
         <v>750</v>
@@ -16630,7 +16707,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>1148</v>
       </c>
@@ -16647,7 +16724,7 @@
         <v>1571</v>
       </c>
       <c r="M208" s="4" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="R208" s="4" t="s">
         <v>1431</v>
@@ -16656,7 +16733,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>1149</v>
       </c>
@@ -16673,7 +16750,7 @@
         <v>1572</v>
       </c>
       <c r="M209" s="4" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="R209" s="4" t="s">
         <v>1432</v>
@@ -16682,7 +16759,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>1150</v>
       </c>
@@ -16699,7 +16776,7 @@
         <v>1573</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="R210" s="4" t="s">
         <v>1433</v>
@@ -16708,7 +16785,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>1157</v>
       </c>
@@ -16719,13 +16796,13 @@
         <v>1159</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="K211" s="20" t="s">
         <v>1596</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="R211" s="4" t="s">
         <v>1434</v>
@@ -16734,7 +16811,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>1160</v>
       </c>
@@ -16745,13 +16822,13 @@
         <v>1162</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="K212" s="4" t="s">
         <v>1574</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="R212" s="4" t="s">
         <v>1435</v>
@@ -16760,7 +16837,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>1163</v>
       </c>
@@ -16771,13 +16848,13 @@
         <v>1164</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="K213" s="4" t="s">
         <v>1164</v>
       </c>
       <c r="M213" s="4" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="R213" s="4" t="s">
         <v>1436</v>
@@ -16786,7 +16863,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>1208</v>
       </c>
@@ -16797,19 +16874,19 @@
         <v>1210</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="K214" s="4" t="s">
         <v>1575</v>
       </c>
       <c r="M214" s="4" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="O214" s="20" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="P214" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="R214" s="4" t="s">
         <v>1437</v>
@@ -16818,7 +16895,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>1165</v>
       </c>
@@ -16829,16 +16906,16 @@
         <v>1178</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="K215" s="4" t="s">
         <v>1576</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="O215" s="20" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="R215" s="4" t="s">
         <v>1438</v>
@@ -16847,7 +16924,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>1167</v>
       </c>
@@ -16858,19 +16935,19 @@
         <v>1177</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="K216" s="4" t="s">
         <v>1577</v>
       </c>
       <c r="M216" s="4" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="O216" s="20" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="P216" s="4" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="R216" s="4" t="s">
         <v>1439</v>
@@ -16879,7 +16956,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>1219</v>
       </c>
@@ -16890,19 +16967,19 @@
         <v>1223</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="K217" s="4" t="s">
         <v>1578</v>
       </c>
       <c r="M217" s="4" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="O217" s="20" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="P217" s="4" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="R217" s="4" t="s">
         <v>1440</v>
@@ -16911,7 +16988,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>1220</v>
       </c>
@@ -16922,19 +16999,19 @@
         <v>1224</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="K218" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="O218" s="20" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="P218" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="R218" s="4" t="s">
         <v>1441</v>
@@ -16943,7 +17020,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>1230</v>
       </c>
@@ -16954,19 +17031,19 @@
         <v>1232</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="K219" s="4" t="s">
         <v>1580</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="O219" s="20" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="P219" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="R219" s="4" t="s">
         <v>1442</v>
@@ -16975,7 +17052,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>1231</v>
       </c>
@@ -16986,19 +17063,19 @@
         <v>1233</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="K220" s="4" t="s">
         <v>1581</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="O220" s="20" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="P220" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="R220" s="4" t="s">
         <v>1443</v>
@@ -17007,12 +17084,12 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>1169</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="C221" s="9" t="s">
         <v>1172</v>
@@ -17021,16 +17098,16 @@
         <v>1176</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="K221" s="4" t="s">
         <v>1582</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="O221" s="20" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="R221" s="4" t="s">
         <v>1444</v>
@@ -17039,7 +17116,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>1170</v>
       </c>
@@ -17050,19 +17127,19 @@
         <v>1173</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="K222" s="4" t="s">
         <v>1583</v>
       </c>
       <c r="M222" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="O222" s="20" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="P222" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="R222" s="4" t="s">
         <v>1445</v>
@@ -17071,7 +17148,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>1171</v>
       </c>
@@ -17082,19 +17159,19 @@
         <v>260</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="K223" s="4" t="s">
         <v>1509</v>
       </c>
       <c r="M223" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O223" s="20" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="P223" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="R223" s="4" t="s">
         <v>1446</v>
@@ -17103,53 +17180,53 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>1182</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>2554</v>
+        <v>2544</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>2555</v>
+        <v>2545</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>2556</v>
+        <v>2546</v>
       </c>
       <c r="K224" s="4" t="s">
-        <v>2557</v>
+        <v>2547</v>
       </c>
       <c r="R224" s="4" t="s">
-        <v>2558</v>
+        <v>2548</v>
       </c>
       <c r="U224" s="22" t="s">
-        <v>2559</v>
-      </c>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>1183</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>2560</v>
+        <v>2550</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>2561</v>
+        <v>2551</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>2562</v>
+        <v>2552</v>
       </c>
       <c r="K225" s="4" t="s">
-        <v>2563</v>
+        <v>2553</v>
       </c>
       <c r="R225" s="4" t="s">
-        <v>2564</v>
+        <v>2554</v>
       </c>
       <c r="U225" s="22" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>1184</v>
       </c>
@@ -17160,7 +17237,7 @@
         <v>1191</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="K226" s="4" t="s">
         <v>1584</v>
@@ -17172,7 +17249,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>1179</v>
       </c>
@@ -17183,7 +17260,7 @@
         <v>1192</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="K227" s="4" t="s">
         <v>1585</v>
@@ -17195,120 +17272,120 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>1185</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>2566</v>
+        <v>2556</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>2567</v>
+        <v>2557</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>2568</v>
+        <v>2558</v>
       </c>
       <c r="K228" s="4" t="s">
-        <v>2569</v>
+        <v>2559</v>
       </c>
       <c r="M228" s="4" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="O228" s="20" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="R228" s="4" t="s">
-        <v>2570</v>
+        <v>2560</v>
       </c>
       <c r="U228" s="22" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>1186</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>2572</v>
+        <v>2562</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>2573</v>
+        <v>2563</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>2574</v>
+        <v>2564</v>
       </c>
       <c r="K229" s="20" t="s">
-        <v>2575</v>
+        <v>2565</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="O229" s="20" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="R229" s="4" t="s">
-        <v>2576</v>
+        <v>2566</v>
       </c>
       <c r="U229" s="22" t="s">
-        <v>2577</v>
-      </c>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>1187</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>2578</v>
+        <v>2568</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>2579</v>
+        <v>2569</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>2580</v>
+        <v>2570</v>
       </c>
       <c r="K230" s="4" t="s">
-        <v>2581</v>
+        <v>2571</v>
       </c>
       <c r="O230" s="20" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="R230" s="4" t="s">
-        <v>2582</v>
+        <v>2572</v>
       </c>
       <c r="U230" s="22" t="s">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>2584</v>
+        <v>2574</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>2585</v>
+        <v>2575</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>2586</v>
+        <v>2576</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="O231" s="20" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="R231" s="4" t="s">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="U231" s="22" t="s">
-        <v>2589</v>
-      </c>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>1188</v>
       </c>
@@ -17319,16 +17396,16 @@
         <v>1190</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="K232" s="20" t="s">
         <v>1595</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="O232" s="20" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="R232" s="4" t="s">
         <v>1449</v>
@@ -17337,7 +17414,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>1193</v>
       </c>
@@ -17348,16 +17425,16 @@
         <v>1195</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="K233" s="4" t="s">
         <v>1586</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="O233" s="20" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="R233" s="4" t="s">
         <v>1450</v>
@@ -17366,7 +17443,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>1211</v>
       </c>
@@ -17377,19 +17454,19 @@
         <v>1260</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="K234" s="4" t="s">
         <v>1587</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="O234" s="20" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="P234" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="R234" s="4" t="s">
         <v>1451</v>
@@ -17398,7 +17475,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>1213</v>
       </c>
@@ -17409,19 +17486,19 @@
         <v>1261</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="K235" s="4" t="s">
         <v>1588</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="O235" s="20" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="P235" s="4" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="R235" s="4" t="s">
         <v>1452</v>
@@ -17430,7 +17507,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>1214</v>
       </c>
@@ -17441,19 +17518,19 @@
         <v>1262</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="K236" s="4" t="s">
         <v>1589</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="O236" s="20" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="P236" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="R236" s="4" t="s">
         <v>1453</v>
@@ -17462,7 +17539,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>1225</v>
       </c>
@@ -17473,19 +17550,19 @@
         <v>1263</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="K237" s="4" t="s">
         <v>1590</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="O237" s="4" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="P237" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="R237" s="4" t="s">
         <v>1454</v>
@@ -17494,7 +17571,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>1226</v>
       </c>
@@ -17505,19 +17582,19 @@
         <v>1264</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="K238" s="4" t="s">
         <v>1591</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="O238" s="4" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="P238" s="4" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="R238" s="4" t="s">
         <v>1455</v>
@@ -17526,7 +17603,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>1247</v>
       </c>
@@ -17537,25 +17614,25 @@
         <v>1249</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="K239" s="4" t="s">
         <v>1592</v>
       </c>
       <c r="O239" s="20" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="P239" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="R239" s="20" t="s">
         <v>1456</v>
       </c>
       <c r="U239" s="22" t="s">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>1236</v>
       </c>
@@ -17566,19 +17643,19 @@
         <v>1238</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="K240" s="4" t="s">
         <v>1593</v>
       </c>
       <c r="M240" s="4" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="O240" s="20" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="P240" s="4" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="R240" s="4" t="s">
         <v>1457</v>
@@ -17587,7 +17664,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>1244</v>
       </c>
@@ -17598,19 +17675,19 @@
         <v>1246</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="K241" s="4" t="s">
         <v>1594</v>
       </c>
       <c r="M241" s="4" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="O241" s="20" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="P241" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="R241" s="4" t="s">
         <v>1458</v>
@@ -17619,7 +17696,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>1460</v>
       </c>
@@ -17663,7 +17740,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>1663</v>
       </c>
@@ -17674,13 +17751,13 @@
         <v>1842</v>
       </c>
       <c r="G243" s="20" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="U243" s="22" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>1664</v>
       </c>
@@ -17691,13 +17768,13 @@
         <v>1843</v>
       </c>
       <c r="G244" s="20" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="U244" s="22" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>1651</v>
       </c>
@@ -17708,16 +17785,16 @@
         <v>1850</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="T245" s="20" t="s">
-        <v>2404</v>
+        <v>2398</v>
       </c>
       <c r="U245" s="22" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>1654</v>
       </c>
@@ -17725,13 +17802,13 @@
         <v>1655</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="U246" s="22" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>1652</v>
       </c>
@@ -17739,13 +17816,13 @@
         <v>1653</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="U247" s="22" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>1656</v>
       </c>
@@ -17753,13 +17830,13 @@
         <v>1657</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="U248" s="22" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>1658</v>
       </c>
@@ -17770,16 +17847,16 @@
         <v>1660</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="P249" s="4" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="U249" s="22" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>1844</v>
       </c>
@@ -17790,10 +17867,10 @@
         <v>1846</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>2296</v>
-      </c>
-    </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>1847</v>
       </c>
@@ -17804,10 +17881,10 @@
         <v>1849</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>1851</v>
       </c>
@@ -17818,13 +17895,13 @@
         <v>1853</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="U252" s="22" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>1854</v>
       </c>
@@ -17835,12 +17912,12 @@
         <v>1855</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C254" s="20" t="s">
         <v>842</v>
@@ -17873,40 +17950,40 @@
         <v>1144</v>
       </c>
       <c r="U254" s="22" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C255" s="20" t="s">
         <v>2125</v>
       </c>
-      <c r="C255" s="20" t="s">
+      <c r="D255" s="20" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
         <v>2126</v>
       </c>
-      <c r="D255" s="20" t="s">
+      <c r="C256" s="20" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D256" s="20" t="s">
         <v>2322</v>
       </c>
-      <c r="G255" s="4" t="s">
+      <c r="G256" s="4" t="s">
         <v>2300</v>
       </c>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A256" s="3" t="s">
-        <v>2127</v>
-      </c>
-      <c r="C256" s="20" t="s">
+    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
         <v>2128</v>
-      </c>
-      <c r="D256" s="20" t="s">
-        <v>2323</v>
-      </c>
-      <c r="G256" s="4" t="s">
-        <v>2301</v>
-      </c>
-    </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A257" s="3" t="s">
-        <v>2129</v>
       </c>
       <c r="C257" s="20" t="s">
         <v>124</v>
@@ -17915,31 +17992,31 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C258" s="20" t="s">
+        <v>2131</v>
+      </c>
+      <c r="G258" s="4" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="C258" s="20" t="s">
+      <c r="C259" s="20" t="s">
         <v>2132</v>
       </c>
-      <c r="G258" s="4" t="s">
+      <c r="G259" s="4" t="s">
         <v>2302</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A259" s="3" t="s">
-        <v>2131</v>
-      </c>
-      <c r="C259" s="20" t="s">
+    <row r="260" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
         <v>2133</v>
-      </c>
-      <c r="G259" s="4" t="s">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A260" s="3" t="s">
-        <v>2134</v>
       </c>
       <c r="C260" s="20" t="s">
         <v>1822</v>
@@ -17951,42 +18028,42 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C261" s="20" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G261" s="4" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
         <v>2136</v>
-      </c>
-      <c r="C261" s="20" t="s">
-        <v>2135</v>
-      </c>
-      <c r="G261" s="4" t="s">
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A262" s="3" t="s">
-        <v>2137</v>
       </c>
       <c r="C262" s="20" t="s">
         <v>1199</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C263" s="20" t="s">
         <v>121</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C264" s="20" t="s">
         <v>124</v>
@@ -17995,198 +18072,201 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C265" s="20" t="s">
         <v>2140</v>
       </c>
-      <c r="C265" s="20" t="s">
+      <c r="G265" s="4" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
         <v>2141</v>
       </c>
-      <c r="G265" s="4" t="s">
+      <c r="B266" s="25" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C266" s="20" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G266" s="4" t="s">
         <v>2305</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A266" s="3" t="s">
-        <v>2142</v>
-      </c>
-      <c r="B266" s="25" t="s">
-        <v>2311</v>
-      </c>
-      <c r="C266" s="20" t="s">
+    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
         <v>2143</v>
       </c>
-      <c r="G266" s="4" t="s">
+      <c r="C267" s="20" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D267" s="20" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G267" s="4" t="s">
         <v>2306</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A267" s="3" t="s">
-        <v>2144</v>
-      </c>
-      <c r="C267" s="20" t="s">
-        <v>2145</v>
-      </c>
-      <c r="G267" s="4" t="s">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C268" s="20" t="s">
         <v>2319</v>
       </c>
-      <c r="C268" s="20" t="s">
+      <c r="D268" s="20" t="s">
         <v>2320</v>
       </c>
-      <c r="D268" s="20" t="s">
-        <v>2321</v>
-      </c>
       <c r="G268" s="20" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
         <v>2324</v>
       </c>
-    </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A269" s="3" t="s">
+      <c r="C269" s="25" t="s">
         <v>2325</v>
       </c>
-      <c r="C269" s="25" t="s">
+      <c r="D269" s="20" t="s">
         <v>2326</v>
       </c>
-      <c r="D269" s="20" t="s">
+      <c r="E269" s="20" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F269" s="20" t="s">
+        <v>2334</v>
+      </c>
+      <c r="G269" s="20" t="s">
         <v>2327</v>
       </c>
-      <c r="E269" s="20" t="s">
+      <c r="H269" s="20" t="s">
+        <v>2328</v>
+      </c>
+      <c r="I269" s="20" t="s">
+        <v>2335</v>
+      </c>
+      <c r="K269" s="20" t="s">
+        <v>2329</v>
+      </c>
+      <c r="L269" s="20" t="s">
+        <v>2333</v>
+      </c>
+      <c r="M269" s="20" t="s">
+        <v>2339</v>
+      </c>
+      <c r="O269" s="20" t="s">
+        <v>2338</v>
+      </c>
+      <c r="P269" s="20" t="s">
+        <v>2330</v>
+      </c>
+      <c r="Q269" s="20" t="s">
         <v>2337</v>
       </c>
-      <c r="F269" s="20" t="s">
-        <v>2335</v>
-      </c>
-      <c r="G269" s="20" t="s">
-        <v>2328</v>
-      </c>
-      <c r="H269" s="20" t="s">
+      <c r="R269" s="20" t="s">
+        <v>2331</v>
+      </c>
+      <c r="T269" s="20" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C270" s="20" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D270" s="20" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G270" s="20" t="s">
+        <v>2376</v>
+      </c>
+      <c r="K270" s="20" t="s">
         <v>2329</v>
       </c>
-      <c r="I269" s="20" t="s">
-        <v>2336</v>
-      </c>
-      <c r="K269" s="20" t="s">
-        <v>2330</v>
-      </c>
-      <c r="L269" s="20" t="s">
-        <v>2334</v>
-      </c>
-      <c r="M269" s="20" t="s">
-        <v>2340</v>
-      </c>
-      <c r="O269" s="20" t="s">
-        <v>2339</v>
-      </c>
-      <c r="P269" s="20" t="s">
-        <v>2331</v>
-      </c>
-      <c r="Q269" s="20" t="s">
-        <v>2338</v>
-      </c>
-      <c r="R269" s="20" t="s">
-        <v>2332</v>
-      </c>
-      <c r="T269" s="20" t="s">
-        <v>2333</v>
-      </c>
-    </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A270" s="3" t="s">
+      <c r="O270" s="20" t="s">
+        <v>2377</v>
+      </c>
+      <c r="R270" s="20" t="s">
+        <v>2378</v>
+      </c>
+      <c r="T270" s="20" t="s">
+        <v>2379</v>
+      </c>
+      <c r="U270" s="22" t="s">
         <v>2380</v>
       </c>
-      <c r="C270" s="20" t="s">
+    </row>
+    <row r="271" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
         <v>2381</v>
       </c>
-      <c r="D270" s="20" t="s">
-        <v>2381</v>
-      </c>
-      <c r="G270" s="20" t="s">
+      <c r="C271" s="20" t="s">
+        <v>2385</v>
+      </c>
+      <c r="D271" s="20" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G271" s="20" t="s">
+        <v>2389</v>
+      </c>
+      <c r="T271" s="20" t="s">
+        <v>2383</v>
+      </c>
+      <c r="U271" s="22" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
         <v>2382</v>
       </c>
-      <c r="K270" s="20" t="s">
-        <v>2330</v>
-      </c>
-      <c r="O270" s="20" t="s">
-        <v>2383</v>
-      </c>
-      <c r="R270" s="20" t="s">
+      <c r="C272" s="20" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D272" s="20" t="s">
+        <v>2388</v>
+      </c>
+      <c r="G272" s="20" t="s">
+        <v>2390</v>
+      </c>
+      <c r="T272" s="20" t="s">
         <v>2384</v>
       </c>
-      <c r="T270" s="20" t="s">
-        <v>2385</v>
-      </c>
-      <c r="U270" s="22" t="s">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A271" s="3" t="s">
-        <v>2387</v>
-      </c>
-      <c r="C271" s="20" t="s">
-        <v>2391</v>
-      </c>
-      <c r="D271" s="20" t="s">
-        <v>2393</v>
-      </c>
-      <c r="G271" s="20" t="s">
+      <c r="U272" s="22" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C273" s="20" t="s">
         <v>2395</v>
       </c>
-      <c r="T271" s="20" t="s">
-        <v>2389</v>
-      </c>
-      <c r="U271" s="22" t="s">
+      <c r="D273" s="20" t="s">
         <v>2397</v>
       </c>
-    </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A272" s="3" t="s">
-        <v>2388</v>
-      </c>
-      <c r="C272" s="20" t="s">
-        <v>2392</v>
-      </c>
-      <c r="D272" s="20" t="s">
-        <v>2394</v>
-      </c>
-      <c r="G272" s="20" t="s">
+      <c r="T273" s="20" t="s">
         <v>2396</v>
       </c>
-      <c r="T272" s="20" t="s">
-        <v>2390</v>
-      </c>
-      <c r="U272" s="22" t="s">
-        <v>2398</v>
-      </c>
-    </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A273" s="3" t="s">
+    </row>
+    <row r="274" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C274" s="9" t="s">
         <v>2400</v>
       </c>
-      <c r="C273" s="20" t="s">
+      <c r="D274" s="9" t="s">
         <v>2401</v>
-      </c>
-      <c r="D273" s="20" t="s">
-        <v>2403</v>
-      </c>
-      <c r="T273" s="20" t="s">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A274" s="3" t="s">
-        <v>2405</v>
-      </c>
-      <c r="C274" s="9" t="s">
-        <v>2406</v>
-      </c>
-      <c r="D274" s="9" t="s">
-        <v>2407</v>
       </c>
       <c r="K274" s="20"/>
       <c r="L274" s="9"/>
@@ -18195,19 +18275,19 @@
       <c r="P274" s="9"/>
       <c r="R274" s="9"/>
       <c r="T274" s="20" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="V274" s="9"/>
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>2409</v>
+        <v>2403</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>2410</v>
+        <v>2404</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>2407</v>
+        <v>2401</v>
       </c>
       <c r="K275" s="20"/>
       <c r="L275" s="9"/>
@@ -18216,262 +18296,435 @@
       <c r="P275" s="9"/>
       <c r="R275" s="9"/>
       <c r="T275" s="20" t="s">
+        <v>2405</v>
+      </c>
+      <c r="V275" s="9"/>
+    </row>
+    <row r="276" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C276" s="20" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D276" s="20" t="s">
+        <v>2410</v>
+      </c>
+      <c r="T276" s="20" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C277" s="20" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D277" s="20" t="s">
         <v>2411</v>
       </c>
-      <c r="V275" s="9"/>
-    </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A276" s="3" t="s">
+      <c r="T277" s="20" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
         <v>2412</v>
       </c>
-      <c r="C276" s="20" t="s">
+      <c r="C278" s="20" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D279" s="20" t="s">
+        <v>2418</v>
+      </c>
+      <c r="G279" s="20" t="s">
+        <v>2419</v>
+      </c>
+      <c r="O279" s="20" t="s">
         <v>2420</v>
       </c>
-      <c r="D276" s="20" t="s">
-        <v>2416</v>
-      </c>
-      <c r="T276" s="20" t="s">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A277" s="3" t="s">
-        <v>2413</v>
-      </c>
-      <c r="C277" s="20" t="s">
-        <v>2421</v>
-      </c>
-      <c r="D277" s="20" t="s">
-        <v>2417</v>
-      </c>
-      <c r="T277" s="20" t="s">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A278" s="3" t="s">
-        <v>2418</v>
-      </c>
-      <c r="C278" s="20" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A279" s="3" t="s">
+      <c r="P279" s="20" t="s">
         <v>2422</v>
       </c>
-      <c r="C279" s="9" t="s">
+      <c r="R279" s="20" t="s">
         <v>2423</v>
       </c>
-      <c r="D279" s="20" t="s">
+      <c r="T279" s="20" t="s">
         <v>2424</v>
       </c>
-      <c r="G279" s="20" t="s">
+      <c r="U279" s="22" t="s">
         <v>2425</v>
       </c>
-      <c r="O279" s="20" t="s">
-        <v>2426</v>
-      </c>
-      <c r="P279" s="20" t="s">
-        <v>2428</v>
-      </c>
-      <c r="R279" s="20" t="s">
-        <v>2429</v>
-      </c>
-      <c r="T279" s="20" t="s">
-        <v>2430</v>
-      </c>
-      <c r="U279" s="22" t="s">
-        <v>2431</v>
-      </c>
-    </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="C280" s="20" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D280" s="20" t="s">
+        <v>2435</v>
+      </c>
+      <c r="G280" s="20" t="s">
+        <v>2436</v>
+      </c>
+      <c r="K280" s="20" t="s">
+        <v>2437</v>
+      </c>
+      <c r="O280" s="20" t="s">
         <v>2438</v>
       </c>
-      <c r="D280" s="20" t="s">
-        <v>2441</v>
-      </c>
-      <c r="G280" s="20" t="s">
-        <v>2442</v>
-      </c>
-      <c r="K280" s="20" t="s">
+      <c r="T280" s="20" t="s">
+        <v>2439</v>
+      </c>
+      <c r="V280" s="20" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
         <v>2443</v>
       </c>
-      <c r="O280" s="20" t="s">
+      <c r="C281" s="20" t="s">
+        <v>2452</v>
+      </c>
+      <c r="T281" s="20" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
         <v>2444</v>
       </c>
-      <c r="T280" s="20" t="s">
+      <c r="C282" s="20" t="s">
+        <v>2451</v>
+      </c>
+      <c r="T282" s="20" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
         <v>2445</v>
       </c>
-      <c r="V280" s="20" t="s">
-        <v>2439</v>
-      </c>
-    </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A281" s="3" t="s">
+      <c r="C283" s="20" t="s">
         <v>2449</v>
       </c>
-      <c r="C281" s="20" t="s">
-        <v>2458</v>
-      </c>
-      <c r="T281" s="20" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A282" s="3" t="s">
-        <v>2450</v>
-      </c>
-      <c r="C282" s="20" t="s">
-        <v>2457</v>
-      </c>
-      <c r="T282" s="20" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A283" s="3" t="s">
-        <v>2451</v>
-      </c>
-      <c r="C283" s="20" t="s">
-        <v>2455</v>
-      </c>
       <c r="T283" s="20" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>2452</v>
+        <v>2446</v>
       </c>
       <c r="C284" s="20" t="s">
+        <v>2581</v>
+      </c>
+      <c r="T284" s="20" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C285" s="31" t="s">
+        <v>2585</v>
+      </c>
+      <c r="T285" s="31" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C286" s="20" t="s">
+        <v>2583</v>
+      </c>
+      <c r="T286" s="20" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C287" s="20" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C288" s="20" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
         <v>2591</v>
       </c>
-      <c r="T284" s="20" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A285" s="3" t="s">
+      <c r="C289" s="20" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D289" s="20" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C290" s="20" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D290" s="20" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C291" s="20" t="s">
         <v>2598</v>
       </c>
-      <c r="C285" s="31" t="s">
-        <v>2595</v>
-      </c>
-      <c r="T285" s="31" t="s">
-        <v>2594</v>
-      </c>
-    </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A286" s="3" t="s">
-        <v>2592</v>
-      </c>
-      <c r="C286" s="20" t="s">
-        <v>2593</v>
-      </c>
-      <c r="T286" s="20" t="s">
-        <v>2347</v>
-      </c>
-    </row>
-    <row r="287" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A287" s="3" t="s">
-        <v>2596</v>
-      </c>
-      <c r="C287" s="20" t="s">
-        <v>2597</v>
-      </c>
-    </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A288" s="3" t="s">
+      <c r="D291" s="20" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C292" s="20" t="s">
         <v>2600</v>
       </c>
-      <c r="C288" s="20" t="s">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="3" t="s">
-        <v>2601</v>
-      </c>
-      <c r="C289" s="20" t="s">
+      <c r="D292" s="20" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C293" s="20" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D293" s="20" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
         <v>2602</v>
       </c>
-      <c r="D289" s="20" t="s">
+      <c r="C294" s="20" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D294" s="20" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
         <v>2603</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="3" t="s">
-        <v>2605</v>
-      </c>
-      <c r="C290" s="20" t="s">
-        <v>2604</v>
-      </c>
-      <c r="D290" s="20" t="s">
-        <v>2606</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="3" t="s">
+      <c r="C295" s="20" t="s">
         <v>2607</v>
       </c>
-      <c r="C291" s="20" t="s">
-        <v>2608</v>
-      </c>
-      <c r="D291" s="20" t="s">
-        <v>2609</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="3" t="s">
+      <c r="D295" s="20" t="s">
         <v>2611</v>
       </c>
-      <c r="C292" s="20" t="s">
-        <v>2610</v>
-      </c>
-      <c r="D292" s="20" t="s">
-        <v>2618</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="3" t="s">
+    </row>
+    <row r="296" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C296" s="20" t="s">
         <v>2614</v>
       </c>
-      <c r="C293" s="20" t="s">
+    </row>
+    <row r="297" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C297" s="20" t="s">
         <v>2615</v>
       </c>
-      <c r="D293" s="20" t="s">
-        <v>2619</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="3" t="s">
-        <v>2612</v>
-      </c>
-      <c r="C294" s="20" t="s">
+    </row>
+    <row r="298" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
         <v>2616</v>
       </c>
-      <c r="D294" s="20" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="3" t="s">
-        <v>2613</v>
-      </c>
-      <c r="C295" s="20" t="s">
+      <c r="C298" s="20" t="s">
         <v>2617</v>
       </c>
-      <c r="D295" s="20" t="s">
-        <v>2621</v>
+    </row>
+    <row r="299" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C299" s="20" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D299" s="20" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C300" s="20" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D300" s="20" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="301" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C301" s="20" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="302" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C302" s="20" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C303" s="20" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="304" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G304" s="4" t="s">
+        <v>2226</v>
+      </c>
+      <c r="K304" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="M304" s="4" t="s">
+        <v>2025</v>
+      </c>
+      <c r="O304" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="P304" s="4" t="s">
+        <v>1934</v>
+      </c>
+      <c r="R304" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="T304" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="U304" s="22" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G305" s="4" t="s">
+        <v>2189</v>
+      </c>
+      <c r="K305" s="20" t="s">
+        <v>1270</v>
+      </c>
+      <c r="L305" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M305" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="O305" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="P305" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R305" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="T305" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="U305" s="22" t="s">
+        <v>1297</v>
+      </c>
+      <c r="V305" s="9" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C306" s="20" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C307" s="20" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D307" s="20" t="s">
+        <v>2643</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V287" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V306" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="champions|detail|overview|highestWinRate"/>
+        <filter val="champions|detail|overview|winRate"/>
+        <filter val="table|header|winRate"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E1:V1">
     <sortCondition ref="V1"/>
   </sortState>
